--- a/data/income_statement/2digits/size/35_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/35_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>35-Electricity, gas, steam and air conditioning supply</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>35-Electricity, gas, steam and air conditioning supply</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1133 +841,1278 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1000033.9777</v>
+        <v>1379501.21895</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1594465.54713</v>
+        <v>2404136.33586</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2440647.48834</v>
+        <v>3436722.98712</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2286683.43857</v>
+        <v>3515738.05084</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3869174.07925</v>
+        <v>5613593.43332</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6094169.813309999</v>
+        <v>7886038.02056</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5895746.74822</v>
+        <v>8724013.011360001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5946085.25611</v>
+        <v>9100353.23897</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6822235.78467</v>
+        <v>10063390.2602</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>19688795.27829</v>
+        <v>24522157.14822</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>21606036.35993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27844414.09795</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>31149368.309</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>913445.84641</v>
+        <v>1275021.25972</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1553372.03394</v>
+        <v>2323603.66029</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2315738.06213</v>
+        <v>3241431.49435</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2186384.13319</v>
+        <v>3368539.52281</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3773243.25615</v>
+        <v>5474549.37649</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5896263.816649999</v>
+        <v>7621773.436400001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5645683.11899</v>
+        <v>8434066.6328</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5466058.93554</v>
+        <v>8555578.868559999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6432180.89299</v>
+        <v>9610139.756690001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>18917119.03752</v>
+        <v>23479492.54044</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>20687991.83117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>26767187.9401</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>30268008.544</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>53401.86594</v>
+        <v>57163.02062</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1792.11499</v>
+        <v>8353.948200000001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>15941.68097</v>
+        <v>24588.38008</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>49698.59988</v>
+        <v>71872.44320000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>5277.09109</v>
+        <v>10860.69375</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>65649.13574</v>
+        <v>71968.62723</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>121089.9653</v>
+        <v>119405.40752</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>335732.87878</v>
+        <v>355813.11598</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>169706.46351</v>
+        <v>173090.58575</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>593117.9501899999</v>
+        <v>814370.79461</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>649572.39449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>826880.1478500001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>639443.995</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>33186.26535</v>
+        <v>47316.93861</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>39301.3982</v>
+        <v>72178.72737000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>108967.74524</v>
+        <v>170703.11269</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>50600.7055</v>
+        <v>75326.08482999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>90653.73201000001</v>
+        <v>128183.36308</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>132256.86092</v>
+        <v>192295.95693</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>128973.66393</v>
+        <v>170540.97104</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>144293.44179</v>
+        <v>188961.25443</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>220348.42817</v>
+        <v>280159.91776</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>178558.29058</v>
+        <v>228293.81317</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>268472.13427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>250346.01</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>241915.77</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>9625.967769999999</v>
+        <v>15615.2901</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>9158.01842</v>
+        <v>49936.55774</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>52809.57282</v>
+        <v>79734.79786000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>51341.35088999999</v>
+        <v>77522.70894999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>80239.74836</v>
+        <v>103723.56151</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>124449.899</v>
+        <v>160267.28328</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>161779.83632</v>
+        <v>242547.70998</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>228332.7964</v>
+        <v>528385.83502</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>182555.59676</v>
+        <v>282859.51717</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>237658.95528</v>
+        <v>383357.53373</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>350070.80269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>375755.12165</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>410164.408</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4167.45183</v>
+        <v>7289.98262</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4416.1357</v>
+        <v>23220.96352</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4199.6018</v>
+        <v>15038.45499</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>6024.67823</v>
+        <v>18736.55062</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8716.868279999999</v>
+        <v>28279.97471</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>24228.20171</v>
+        <v>44558.26155</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>30636.5871</v>
+        <v>76252.5377</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>42249.78483999999</v>
+        <v>195454.0354</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>75151.42569000002</v>
+        <v>110928.67011</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>137566.3794</v>
+        <v>207427.913</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>202633.60838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>150873.44765</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>156065.531</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4503.75957</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2372.75909</v>
+        <v>1128.83482</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>7853.20358</v>
+        <v>8922.760610000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2664.42874</v>
+        <v>5231.47925</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4001.98635</v>
+        <v>3506.97078</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2464.97167</v>
+        <v>1983.18035</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>5947.16734</v>
+        <v>6905.69681</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>14052.95989</v>
+        <v>45505.1943</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6140.599179999999</v>
+        <v>5990.36643</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>13353.03767</v>
+        <v>11312.02962</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2651.16444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2944.87197</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>9024.468000000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>954.7563699999999</v>
+        <v>3821.54791</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2369.12363</v>
+        <v>25586.7594</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>40756.76744</v>
+        <v>55773.58226</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>42652.24392</v>
+        <v>53554.67908</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>67520.89373000001</v>
+        <v>71936.61602</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>97756.72562000001</v>
+        <v>113725.84138</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>125196.08188</v>
+        <v>159389.47547</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>172030.05167</v>
+        <v>287426.60532</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>101263.57189</v>
+        <v>165940.48063</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>86739.53821</v>
+        <v>164617.59111</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>144786.02987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>221936.80203</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>245074.409</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>990408.0099300001</v>
+        <v>1363885.92885</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1585307.52871</v>
+        <v>2354199.77812</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2387837.91552</v>
+        <v>3356988.18926</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2235342.08768</v>
+        <v>3438215.34189</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3788934.33089</v>
+        <v>5509869.871809999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5969719.914310001</v>
+        <v>7725770.73728</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5733966.911900001</v>
+        <v>8481465.301380001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5717752.45971</v>
+        <v>8571967.40395</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6639680.18791</v>
+        <v>9780530.74303</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>19451136.32301</v>
+        <v>24138799.61449</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>21255965.55724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>27468658.9763</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>30739203.901</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>839503.8495600001</v>
+        <v>1143051.75846</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1399991.38867</v>
+        <v>2144804.01969</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2188564.3015</v>
+        <v>2965471.76135</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2064707.77095</v>
+        <v>3081323.58118</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3430482.54467</v>
+        <v>4934778.2595</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5595608.499809999</v>
+        <v>7267362.26856</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5248325.971100001</v>
+        <v>7342757.70243</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5118930.0425</v>
+        <v>7204436.20969</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5915286.106509999</v>
+        <v>8222986.260489999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>16731017.44487</v>
+        <v>19643587.01665</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>17611087.30069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21305304.22696</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>24913950.114</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>101308.34542</v>
+        <v>228300.70537</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>155085.30245</v>
+        <v>508421.2998400001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>245555.10759</v>
+        <v>628558.0202600001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>163316.67731</v>
+        <v>697099.59627</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>417054.8649099999</v>
+        <v>1338564.55617</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>775055.6295899999</v>
+        <v>1881906.67952</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>430545.49081</v>
+        <v>1611993.84563</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>442336.9105699999</v>
+        <v>1660605.48901</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>528333.37994</v>
+        <v>1821058.74257</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2024110.68836</v>
+        <v>4288634.35252</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2613414.221539999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4979515.337180001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6758599.289</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>600451.2680299999</v>
+        <v>653432.3799300001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1042909.02966</v>
+        <v>1205118.02129</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1610644.56047</v>
+        <v>1743610.66593</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1497100.83559</v>
+        <v>1693343.61535</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2274213.24735</v>
+        <v>2428726.26113</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3764294.68829</v>
+        <v>3966796.28919</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3884593.84518</v>
+        <v>4188752.74895</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3480260.143480001</v>
+        <v>3693306.04547</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3708790.5937</v>
+        <v>3966431.41338</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>11686312.81104</v>
+        <v>12012897.08802</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>11888207.06812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12428638.77899</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>13029076.3</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>137220.53246</v>
+        <v>259636.22588</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>163728.34095</v>
+        <v>383402.17947</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>286016.03729</v>
+        <v>540332.3788300001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>354614.90881</v>
+        <v>639635.93131</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>709139.12239</v>
+        <v>1133730.14384</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1050786.76034</v>
+        <v>1394653.15829</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>923777.6407200001</v>
+        <v>1534431.12826</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1149084.33618</v>
+        <v>1800197.15719</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1575274.65123</v>
+        <v>2323699.87952</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2844212.2568</v>
+        <v>3158471.178</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3025080.97627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3820450.00436</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4980073.926</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>523.70365</v>
+        <v>1682.44728</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>38268.71561</v>
+        <v>47862.51909</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>46348.59615</v>
+        <v>52970.69633</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>49675.34924</v>
+        <v>51244.43825</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>30075.31002</v>
+        <v>33757.29836</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5471.42159</v>
+        <v>24006.14156</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>9408.99439</v>
+        <v>7579.97959</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>47248.65227000001</v>
+        <v>50327.51802</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>102887.48164</v>
+        <v>111796.22502</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>176381.68867</v>
+        <v>183584.39811</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>84385.03476000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>76700.10643000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>146200.599</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>150904.16037</v>
+        <v>220834.17039</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>185316.14004</v>
+        <v>209395.75843</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>199273.61402</v>
+        <v>391516.42791</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>170634.31673</v>
+        <v>356891.7607100001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>358451.78622</v>
+        <v>575091.61231</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>374111.4145</v>
+        <v>458408.46872</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>485640.9408</v>
+        <v>1138707.59895</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>598822.4172099999</v>
+        <v>1367531.19426</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>724394.0814</v>
+        <v>1557544.48254</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2720118.87814</v>
+        <v>4495212.59784</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3644878.25655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6163354.749340001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5825253.787</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>104575.43628</v>
+        <v>165842.36862</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>135747.94707</v>
+        <v>198504.8504</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>167749.85491</v>
+        <v>261525.85664</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>199523.29389</v>
+        <v>293390.76518</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>286066.08231</v>
+        <v>372773.91949</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>424067.51278</v>
+        <v>560900.49846</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>379331.8569600001</v>
+        <v>675259.7019700001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>469371.89195</v>
+        <v>687936.82871</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>557611.97306</v>
+        <v>672292.07554</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>856115.9824300001</v>
+        <v>1156191.02978</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1022978.75437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1626998.77783</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1412105.623</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>205.00351</v>
+        <v>5711.3724</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>29.75353</v>
+        <v>276.37745</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>200.70519</v>
+        <v>163.03504</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>3523.05482</v>
+        <v>222.93704</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1566.45591</v>
+        <v>68.09948</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4749.83129</v>
+        <v>602.0295599999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4703.10467</v>
+        <v>575.68601</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>6121.339150000001</v>
+        <v>1693.1121</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>5410.231070000001</v>
+        <v>23500.53408</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1942.05277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>36122.55373000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4448.855</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>29410.89554</v>
+        <v>36620.05736999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>34720.54515999999</v>
+        <v>46679.16625</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>57879.92018</v>
+        <v>66468.58645</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>67810.86588</v>
+        <v>76679.07746</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>104922.20881</v>
+        <v>118943.91275</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>205668.92613</v>
+        <v>218025.3298</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>101972.81629</v>
+        <v>113307.99115</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>134340.97408</v>
+        <v>178644.35565</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>139123.28299</v>
+        <v>149148.98175</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>202070.36049</v>
+        <v>255878.18306</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>221013.86223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>263299.43423</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>269172.661</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>74959.53723</v>
+        <v>123510.93885</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>101027.40191</v>
+        <v>151825.68415</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>109840.1812</v>
+        <v>194780.89274</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>131511.72282</v>
+        <v>216548.65268</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>177620.81868</v>
+        <v>253607.0697</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>216832.13074</v>
+        <v>342807.06918</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>272609.20938</v>
+        <v>561349.68126</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>330327.8132</v>
+        <v>508716.7870499999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>412367.3509199999</v>
+        <v>521449.98169</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>648635.39087</v>
+        <v>876812.31264</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>800022.8393700001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1327576.78987</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1138484.107</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>46328.72409</v>
+        <v>54991.80177000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>49568.19297</v>
+        <v>10890.90803</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>31523.75911</v>
+        <v>129990.57127</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-28888.97715999999</v>
+        <v>63500.99553</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>72385.70391</v>
+        <v>202317.69282</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-49956.09828</v>
+        <v>-102492.02974</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>106309.08384</v>
+        <v>463447.89698</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>129450.52526</v>
+        <v>679594.36555</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>166782.10834</v>
+        <v>885252.407</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1864002.89571</v>
+        <v>3339021.56806</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2621899.50218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4536355.971510001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4413148.164</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>99887.54506999999</v>
+        <v>460462.42763</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>157409.69603</v>
+        <v>498219.99845</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>142305.34709</v>
+        <v>432843.88431</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>131253.16231</v>
+        <v>774907.9763099999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>224169.40197</v>
+        <v>1046879.83783</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>298188.27043</v>
+        <v>1276450.47533</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>535995.8994100001</v>
+        <v>2061610.81573</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>423032.03935</v>
+        <v>1345314.43549</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>569376.0165499999</v>
+        <v>2664629.8725</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>5046835.24217</v>
+        <v>16870023.31048</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2442367.47317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>8325290.4138</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8563020.537</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>228.22882</v>
+        <v>3602.47969</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1757.83817</v>
+        <v>89469.60803</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>17541.8952</v>
+        <v>663.99609</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>6241.388099999999</v>
+        <v>1341.43663</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>4091.83221</v>
+        <v>2969.61541</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1646.24522</v>
+        <v>11071.88307</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>3287.61024</v>
+        <v>14530.20114</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5044.43324</v>
+        <v>11194.17648</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>9505.39105</v>
+        <v>9492.96919</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>97826.81762999999</v>
+        <v>40139.41034</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>77738.25884000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>120512.41368</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>57525.467</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2858.86312</v>
+        <v>58753.71881000001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>162.99257</v>
+        <v>8.91339</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>251.39316</v>
+        <v>57.71842999999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>103.47175</v>
+        <v>63755.95433000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>184.84192</v>
+        <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1628.57725</v>
+        <v>29278.91613</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>555.50265</v>
+        <v>202985.44193</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1207.76444</v>
+        <v>210.16577</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>862.04823</v>
+        <v>266.38276</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>91187.79856</v>
+        <v>5213159.98011</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>84917.54902999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2409648.67617</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2226270.083</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>22340.10582</v>
+        <v>26929.26615</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>25553.80183</v>
+        <v>47700.32493</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>23609.32761</v>
+        <v>53038.51102000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>34034.94873</v>
+        <v>51700.91556</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>43993.19805000001</v>
+        <v>119958.68067</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>57912.86145</v>
+        <v>207013.82561</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>70666.29014999999</v>
+        <v>204272.26543</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>81687.08491000001</v>
+        <v>187386.99855</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>90612.24761999999</v>
+        <v>374686.61587</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>363581.0912</v>
+        <v>575204.9583300001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>370429.44005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>465135.97458</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>468426.821</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>0</v>
+        <v>4.13746</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>8.820350000000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>153.69272</v>
+        <v>153.92339</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>58.14644999999999</v>
+        <v>3.69112</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>54.31307</v>
+        <v>1168.43978</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>31.4721</v>
+        <v>218.85424</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>455.27398</v>
+        <v>1100.12374</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>31.02019</v>
+        <v>463.01056</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3636.46952</v>
+        <v>1939.86794</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2933.28068</v>
+        <v>464.08101</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1687.26089</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>637.02577</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>9538.429</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>391.82036</v>
+        <v>452.03559</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>291.0017800000001</v>
+        <v>471.0999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1159.16735</v>
+        <v>4301.542469999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>590.0336699999999</v>
+        <v>2589.36554</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1057.23433</v>
+        <v>3049.38501</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>797.62397</v>
+        <v>2445.13029</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1472.85628</v>
+        <v>2709.23061</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7051.76444</v>
+        <v>7370.75141</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4054.02584</v>
+        <v>5028.770930000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6455.57587</v>
+        <v>7345.54423</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>9505.93525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>12288.9288</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3900.23</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1206.92244</v>
+        <v>1320.92041</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>339.8502</v>
+        <v>1283.79688</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>17810.88921</v>
+        <v>1235.93705</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2157.67513</v>
+        <v>2435.72307</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>18530.48219</v>
+        <v>1311.08688</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>834.4239699999999</v>
+        <v>1214.54083</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>10134.8358</v>
+        <v>4884.55262</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>39958.66469999999</v>
+        <v>25025.81297</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1372.84415</v>
+        <v>597864.553</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>35369.26858</v>
+        <v>290172.58016</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>50119.95846</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>67819.19386</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>150466.777</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>59817.29332</v>
+        <v>304309.31721</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>108128.19936</v>
+        <v>332739.73703</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>49594.15329</v>
+        <v>336236.39106</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>56377.9698</v>
+        <v>618498.08702</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>126651.50121</v>
+        <v>888009.20779</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>163626.03271</v>
+        <v>949040.4479299999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>315879.17372</v>
+        <v>1498741.8955</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>226066.43921</v>
+        <v>1030118.61264</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>406602.38712</v>
+        <v>1571225.73621</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4116154.56941</v>
+        <v>9859625.501720002</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1593921.52344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4438823.78966</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>5376128.809</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>5984.9655</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0</v>
+        <v>2118.7337</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>0</v>
+        <v>1230.05985</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>197.4515</v>
+        <v>620.95444</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>172.52579</v>
+        <v>158.19442</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>0.7813</v>
+        <v>38.74381</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>39.45467</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>173.49169</v>
+        <v>63.58838</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>708.81949</v>
+        <v>18.96878</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>38579.09509</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>5.40631</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>15.378</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>13044.31119</v>
+        <v>59105.58681</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>21167.19177</v>
+        <v>24418.96424</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>32184.82855</v>
+        <v>35925.80495000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>31492.07718</v>
+        <v>33961.8486</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>29433.4732</v>
+        <v>30255.22787</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>71710.25245999999</v>
+        <v>76128.13342</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>133544.35659</v>
+        <v>132347.65009</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>61811.37653</v>
+        <v>83481.31873</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>52021.78353</v>
+        <v>104106.00782</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>291135.7347399999</v>
+        <v>841720.14908</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>254042.1409</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>810419.0049699999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>270748.543</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>58884.63918999999</v>
+        <v>277043.10842</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>108860.62791</v>
+        <v>278793.91166</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>130959.18989</v>
+        <v>720645.8533300001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>70594.77507999999</v>
+        <v>416520.00249</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>242734.48423</v>
+        <v>1352930.73655</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>271927.15505</v>
+        <v>1265768.66141</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>611355.82973</v>
+        <v>3684190.04678</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>547258.7026999999</v>
+        <v>2358679.88172</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>687716.3355800001</v>
+        <v>2761897.20898</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7075147.46861</v>
+        <v>15178638.51262</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2688601.48834</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5794064.35107</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>8638469.113</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>510.56064</v>
+        <v>28.8734</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>850.0314599999999</v>
+        <v>155.57888</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1096.16213</v>
+        <v>354.79669</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1205.36405</v>
+        <v>260.49754</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>387.69856</v>
+        <v>1024.66576</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>847.30867</v>
+        <v>735.63197</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3002.19465</v>
+        <v>5066.10171</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1815.42825</v>
+        <v>3515.03091</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2683.25335</v>
+        <v>1035.52704</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>7867.363109999999</v>
+        <v>8114.79099</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4722.35822</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>767.4544000000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>630.037</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1410.51239</v>
+        <v>2106.77429</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1246.58422</v>
+        <v>1556.5716</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1204.63803</v>
+        <v>1584.33401</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1511.80553</v>
+        <v>2494.08681</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3090.31675</v>
+        <v>32729.05818</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1266.29115</v>
+        <v>2616.993190000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5156.42508</v>
+        <v>8067.2278</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11815.49713</v>
+        <v>13729.55967</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6851.72741</v>
+        <v>15311.62527</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>8114.38199</v>
+        <v>14275.55563</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>31717.79961</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>34575.40478</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>20140.511</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>2.52</v>
+        <v>19.78149</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1162.00396</v>
+        <v>1365.9132</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>883.48063</v>
+        <v>17.40216</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>734.91509</v>
+        <v>721.9657900000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>643.1634</v>
+        <v>44.53466</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>155.33598</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>6241.36098</v>
+        <v>3723.46796</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>17167.31245</v>
+        <v>16760.17188</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>6022.79515</v>
+        <v>3434.68156</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>44368.48154</v>
+        <v>14329.85911</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>38878.76429</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>38490.94449</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>52272.491</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>54513.62631</v>
+        <v>262804.62537</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>85953.01364</v>
+        <v>243323.56717</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>80782.85324</v>
+        <v>665447.01907</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>44774.45352</v>
+        <v>374326.9894199999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>210106.44476</v>
+        <v>1289046.37352</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>204493.66274</v>
+        <v>1160903.2823</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>459963.19874</v>
+        <v>3543928.90162</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>450555.3407</v>
+        <v>2217741.14949</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>625768.22462</v>
+        <v>2626424.06315</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6681422.17953</v>
+        <v>14705844.1437</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2396312.86765</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5287632.258910001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>8109300.918</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0.51476</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2363,34 +2449,39 @@
         <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>765.96349</v>
+        <v>0.46452</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>3.8829</v>
+        <v>166.12605</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>252.65463</v>
+        <v>55.03899</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>207.93353</v>
+        <v>64.11581</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>104.29188</v>
+        <v>23391.16366</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>305.57706</v>
+        <v>7688.10203</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1855.31321</v>
+        <v>10.36197</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>807.1382</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>336.67619</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>47.099</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2402,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>16.87099</v>
+        <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2420,598 +2511,676 @@
         <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0</v>
+        <v>0.243</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2446.90509</v>
+        <v>12083.05387</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>19648.99463</v>
+        <v>32392.28081</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>46992.05586</v>
+        <v>53242.3014</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>21585.40241</v>
+        <v>38715.99841000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>28502.97786</v>
+        <v>29919.97838</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>64911.90188</v>
+        <v>101302.37898</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>136784.71675</v>
+        <v>123340.23188</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>65800.83229000001</v>
+        <v>83542.80611</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>46084.75799000001</v>
+        <v>108003.20993</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>331519.74923</v>
+        <v>436063.55822</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>216162.56037</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>432261.6123</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>456078.057</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>52118.85286</v>
+        <v>138454.37878</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>57975.08</v>
+        <v>276204.23817</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>64059.32513</v>
+        <v>295327.25801</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>49113.56799000001</v>
+        <v>361162.00765</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>174929.96702</v>
+        <v>826019.44374</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>152522.42559</v>
+        <v>699819.0666200001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>270662.2288</v>
+        <v>1695045.83701</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>271172.14406</v>
+        <v>1251460.42559</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>403625.4339299999</v>
+        <v>1576713.26243</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2604095.04929</v>
+        <v>5704821.402609999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2175504.84777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3595894.27668</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4995970.392</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>44997.62002</v>
+        <v>86611.25227</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>45985.61783</v>
+        <v>227935.88748</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>46187.26416999999</v>
+        <v>157304.21553</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>35947.31536</v>
+        <v>214472.72299</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>105262.3875</v>
+        <v>369778.70468</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>110345.92977</v>
+        <v>353965.9403599999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>166933.82314</v>
+        <v>820968.0845</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>197847.41164</v>
+        <v>772006.93808</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>306786.26854</v>
+        <v>1082445.37408</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1259452.33749</v>
+        <v>3033083.04329</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1484228.32299</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2309821.068</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3073505.645</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>7121.23284</v>
+        <v>51843.12651</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>11989.46217</v>
+        <v>48268.35069</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>17872.06096</v>
+        <v>138023.04248</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>13166.25263</v>
+        <v>146689.28466</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>69667.57952</v>
+        <v>456240.73906</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>42176.49582</v>
+        <v>345853.12626</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>103728.40566</v>
+        <v>874077.75251</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>73324.73242</v>
+        <v>479453.48751</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>96839.16538999999</v>
+        <v>494267.88835</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1344642.7118</v>
+        <v>2671738.35932</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>691276.52478</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1286073.20868</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1922464.747</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>35212.77711</v>
+        <v>99956.74220000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>40142.18109000001</v>
+        <v>-45887.24335</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-21189.40882</v>
+        <v>-453138.65576</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-17344.15792</v>
+        <v>60726.96169999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-121109.34537</v>
+        <v>-929752.64964</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-176217.40849</v>
+        <v>-791629.28244</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-239713.07528</v>
+        <v>-2854177.17108</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-265948.28215</v>
+        <v>-1585231.50627</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-355183.6446199999</v>
+        <v>-788728.1919099999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-2768404.38002</v>
+        <v>-674415.0366900001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>200160.63924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3471687.75756</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-658270.804</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5099.404560000001</v>
+        <v>24492.1428</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>57997.55128</v>
+        <v>18816.22049</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>13525.57403</v>
+        <v>22774.22275</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6342.76711</v>
+        <v>18610.89384</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>22137.45332</v>
+        <v>62317.39553</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>21746.90036</v>
+        <v>39372.10579</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>29930.66691</v>
+        <v>101776.20165</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>46762.44427</v>
+        <v>116589.45978</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>49430.17141</v>
+        <v>228796.85312</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>302740.7772</v>
+        <v>507837.36493</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>236075.52073</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>356731.85492</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1070441.808</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1624.19733</v>
+        <v>594.4139800000002</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>370.7132800000001</v>
+        <v>322.44392</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>865.45363</v>
+        <v>2668.8789</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>173.65347</v>
+        <v>161.56217</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>576.46975</v>
+        <v>19555.37981</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>662.08982</v>
+        <v>1330.16012</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2095.82471</v>
+        <v>518.64662</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>432.47979</v>
+        <v>3454.17313</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2089.49334</v>
+        <v>1441.1557</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>7040.19977</v>
+        <v>3108.46513</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>24690.76367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2280.95959</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>56025.381</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3475.20723</v>
+        <v>23897.72882</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>57626.838</v>
+        <v>18493.77657</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>12660.1204</v>
+        <v>20105.34385</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6169.11364</v>
+        <v>18449.33167</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>21560.98357</v>
+        <v>42762.01572</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>21084.81054</v>
+        <v>38041.94566999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>27834.8422</v>
+        <v>101257.55503</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>46329.96448</v>
+        <v>113135.28665</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>47340.67807</v>
+        <v>227355.69742</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>295700.57743</v>
+        <v>504728.8998</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>211384.75706</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>354450.89533</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1014416.427</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>20377.81944</v>
+        <v>25067.56343</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>22445.46552</v>
+        <v>67654.70578</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>40000.75028</v>
+        <v>75494.96040000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>15195.36489</v>
+        <v>101036.64834</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>33630.76293</v>
+        <v>75806.53456</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>44031.51382</v>
+        <v>110503.91053</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>65060.9949</v>
+        <v>170735.06204</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>92326.35107999999</v>
+        <v>192811.87903</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>93507.05301</v>
+        <v>112984.50647</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>451799.1528</v>
+        <v>1149185.97781</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>316225.3650700001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>319749.10435</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>931984.517</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2885.82418</v>
+        <v>6932.06099</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>3599.21991</v>
+        <v>32812.45772</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>5508.644240000001</v>
+        <v>9621.21645</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4744.41893</v>
+        <v>24113.84876</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>5955.623280000001</v>
+        <v>45094.02658</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>8659.47501</v>
+        <v>59493.82359</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>15748.50404</v>
+        <v>82208.76788</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4598.784769999999</v>
+        <v>54032.84349</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>27307.20746</v>
+        <v>21972.26239</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>27517.41918</v>
+        <v>93491.21675000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>58747.65094</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>73389.22489</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>120638.113</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6703.710899999999</v>
+        <v>3853.55287</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2343.17049</v>
+        <v>2433.643309999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1715.13915</v>
+        <v>2194.111</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>816.29576</v>
+        <v>3485.26665</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4455.735070000001</v>
+        <v>1168.48164</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1675.91017</v>
+        <v>1208.22978</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>10251.99686</v>
+        <v>1208.67194</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6348.672570000001</v>
+        <v>18450.48379</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1040.55343</v>
+        <v>3257.62896</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>13978.06808</v>
+        <v>11627.21483</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10699.79571</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>31426.28982</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>37544.394</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>10788.28436</v>
+        <v>14281.94957</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>16503.07512</v>
+        <v>32408.60475</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>32776.96689</v>
+        <v>63679.63295000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>9634.6502</v>
+        <v>73437.53292999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>23219.40458</v>
+        <v>29544.02634</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>33696.12864</v>
+        <v>49801.85716000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>39060.494</v>
+        <v>87317.62222</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>81378.89374000001</v>
+        <v>120328.55175</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>65159.29212</v>
+        <v>87754.61511999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>410303.66554</v>
+        <v>1044067.54623</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>246777.91842</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>214933.58964</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>773802.01</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>19934.36223</v>
+        <v>99381.32157</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>75694.26685</v>
+        <v>-94725.72864</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-47664.58507</v>
+        <v>-505859.39341</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-26196.7557</v>
+        <v>-21698.7928</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-132602.65498</v>
+        <v>-943241.7886699999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-198502.02195</v>
+        <v>-862761.0871799999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-274843.40327</v>
+        <v>-2923136.03147</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-311512.18896</v>
+        <v>-1661453.92552</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-399260.5262199999</v>
+        <v>-672915.84526</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-2917462.75562</v>
+        <v>-1315763.64957</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>120010.7949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3508670.50813</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-519813.513</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>12951.77515</v>
+        <v>19494.09709</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>13765.40644</v>
+        <v>21299.06538</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>15157.96855</v>
+        <v>15749.15518</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>11941.80404</v>
+        <v>19400.75694</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>22536.7207</v>
+        <v>83792.67574999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>17553.40012</v>
+        <v>25717.85859</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>43187.92678</v>
+        <v>43353.98385</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>38993.06899</v>
+        <v>43424.45267999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>49744.92827000001</v>
+        <v>72480.62023</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>159239.87197</v>
+        <v>160766.48583</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>205362.80906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>250802.96301</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>294981.324</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>6982.58708</v>
+        <v>79887.22448</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>61928.86040999999</v>
+        <v>-116024.79402</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-62822.55362000001</v>
+        <v>-521608.54859</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-38138.55974</v>
+        <v>-41099.54974</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-155139.37568</v>
+        <v>-1027034.46442</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-216055.42207</v>
+        <v>-888478.9457700001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-318031.33005</v>
+        <v>-2966490.01532</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-350505.25795</v>
+        <v>-1704878.3782</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-449005.4544900001</v>
+        <v>-745396.46549</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-3076702.62759</v>
+        <v>-1476530.1354</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-85352.01415999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3257867.54512</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-814794.8370000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>364</v>
+        <v>215</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>408</v>
+        <v>231</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>468</v>
+        <v>285</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>546</v>
+        <v>294</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>881</v>
+        <v>356</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>629</v>
+        <v>287</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>333</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>